--- a/Size_calculator_sheet.xlsx
+++ b/Size_calculator_sheet.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_CODING\python\Projects\MFSIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35867C67-2C31-41DA-9443-0C718D87C9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD6602-95CC-4BCA-925A-FAF797C43A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>Height in mm:</t>
   </si>
   <si>
-    <t>Size in mm:</t>
+    <t>Size in mm²:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -460,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -484,12 +484,12 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -505,8 +505,11 @@
       <c r="E4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -521,7 +524,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -532,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -545,7 +548,7 @@
         <v>124</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="C9:E9" si="0">IF(ISBLANK(D5), "", D5/D4 * $B$7)</f>
+        <f t="shared" ref="D9:E9" si="0">IF(ISBLANK(D5), "", D5/D4 * $B$7)</f>
         <v>126</v>
       </c>
       <c r="E9" t="str">
@@ -553,7 +556,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -562,7 +565,7 @@
         <v>124.26666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -571,7 +574,7 @@
         <v>1242.6666666666667</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:E12" si="1">$B$11*C4/$B$7</f>
+        <f t="shared" ref="C12:F12" si="1">$B$11*C4/$B$7</f>
         <v>2485.3333333333335</v>
       </c>
       <c r="D12">
@@ -582,8 +585,12 @@
         <f t="shared" si="1"/>
         <v>12426.666666666666</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>24853.333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -592,7 +599,7 @@
         <v>14.666666666666742</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:E13" si="2">IF(ISBLANK(C5),"",ABS(C12-C5))</f>
+        <f t="shared" ref="C13:F13" si="2">IF(ISBLANK(C5),"",ABS(C12-C5))</f>
         <v>5.3333333333334849</v>
       </c>
       <c r="D13">
@@ -603,8 +610,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -613,7 +624,7 @@
         <v>29.777777777777754</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -622,7 +633,7 @@
         <v>1.6142703862660943</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:E16" si="3">$B$1/(C12/$B$7)</f>
+        <f t="shared" ref="C16:F16" si="3">$B$1/(C12/$B$7)</f>
         <v>0.80713519313304716</v>
       </c>
       <c r="D16" s="3">
@@ -633,8 +644,12 @@
         <f t="shared" si="3"/>
         <v>0.16142703862660945</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0713519313304727E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -643,7 +658,7 @@
         <v>2.4254291845493561</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E17" si="4">$C$1/(C12/$B$7)</f>
+        <f t="shared" ref="C17:F17" si="4">$C$1/(C12/$B$7)</f>
         <v>1.212714592274678</v>
       </c>
       <c r="D17" s="3">
@@ -654,14 +669,18 @@
         <f t="shared" si="4"/>
         <v>0.24254291845493564</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12127145922746782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -670,7 +689,7 @@
         <v>3.9152985066035471</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:E19" si="5">C16*C17</f>
+        <f t="shared" ref="C19:F19" si="5">C16*C17</f>
         <v>0.97882462665088676</v>
       </c>
       <c r="D19" s="3">
@@ -681,8 +700,12 @@
         <f t="shared" si="5"/>
         <v>3.9152985066035484E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <f t="shared" si="5"/>
+        <v>9.788246266508871E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
     </row>
   </sheetData>
